--- a/public/TemplateImport/template_import_major.xlsx
+++ b/public/TemplateImport/template_import_major.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\learning-app\public\TemplateImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA3329E-2A62-43C3-B460-E178B9BAF0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44BE79C-9A9B-41DF-83F0-63828F066C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{087D9E47-7B34-47D3-8A7D-01AE6CA50FA8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ABC</t>
   </si>
@@ -53,23 +53,17 @@
     <t>Mã Khoa</t>
   </si>
   <si>
-    <t>FacultyId</t>
-  </si>
-  <si>
-    <t>majorName</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> majorId</t>
-  </si>
-  <si>
     <t>DCT</t>
+  </si>
+  <si>
+    <t>CHUYÊN NGÀNH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +87,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,11 +127,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,6 +149,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +491,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,25 +504,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -519,10 +529,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/TemplateImport/template_import_major.xlsx
+++ b/public/TemplateImport/template_import_major.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\learning-app\public\TemplateImport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\learning-app\public\TemplateImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44BE79C-9A9B-41DF-83F0-63828F066C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3468F834-17F2-4AE3-B1C2-08527FEF225F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{087D9E47-7B34-47D3-8A7D-01AE6CA50FA8}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{087D9E47-7B34-47D3-8A7D-01AE6CA50FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ABC</t>
   </si>
@@ -57,6 +57,21 @@
   </si>
   <si>
     <t>CHUYÊN NGÀNH</t>
+  </si>
+  <si>
+    <t>majorId</t>
+  </si>
+  <si>
+    <t>majorName</t>
+  </si>
+  <si>
+    <t>orderNo</t>
+  </si>
+  <si>
+    <t>facultyId</t>
+  </si>
+  <si>
+    <t>Thứ tự</t>
   </si>
 </sst>
 </file>
@@ -74,7 +89,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,15 +105,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,49 +127,42 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,53 +495,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DBA273-47A2-4126-A988-E125690B883F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="34.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="39.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="37.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/TemplateImport/template_import_major.xlsx
+++ b/public/TemplateImport/template_import_major.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\learning-app\public\TemplateImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3468F834-17F2-4AE3-B1C2-08527FEF225F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230732FE-4DC5-4029-8ADF-C4A3E7301146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{087D9E47-7B34-47D3-8A7D-01AE6CA50FA8}"/>
   </bookViews>
@@ -44,41 +44,41 @@
     <t>DEF</t>
   </si>
   <si>
-    <t>Mã chuyên ngành</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên Chuyên ngành </t>
-  </si>
-  <si>
-    <t>Mã Khoa</t>
-  </si>
-  <si>
     <t>DCT</t>
   </si>
   <si>
-    <t>CHUYÊN NGÀNH</t>
-  </si>
-  <si>
     <t>majorId</t>
   </si>
   <si>
     <t>majorName</t>
   </si>
   <si>
-    <t>orderNo</t>
-  </si>
-  <si>
     <t>facultyId</t>
   </si>
   <si>
-    <t>Thứ tự</t>
+    <t>NGÀNH</t>
+  </si>
+  <si>
+    <t>Mã ngành</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên ngành </t>
+  </si>
+  <si>
+    <t>Mã khoa</t>
+  </si>
+  <si>
+    <t>Số tín chỉ của ngành</t>
+  </si>
+  <si>
+    <t>creditHourTotal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +105,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,7 +148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,17 +156,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -498,7 +515,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
@@ -506,58 +523,58 @@
     <col min="1" max="1" width="34.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="48.81640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="26.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" style="9" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
